--- a/data_year/zb/科技/规模以上工业企业产品和工艺创新情况/实现工艺创新的企业所占比重/按行业分实现工艺创新的企业所占比重.xlsx
+++ b/data_year/zb/科技/规模以上工业企业产品和工艺创新情况/实现工艺创新的企业所占比重/按行业分实现工艺创新的企业所占比重.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT4"/>
+  <dimension ref="A1:AT5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1086,6 +1086,148 @@
         <v>16.718</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>53.038</v>
+      </c>
+      <c r="C5" t="n">
+        <v>58.282</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.544</v>
+      </c>
+      <c r="E5" t="n">
+        <v>41.624</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" t="n">
+        <v>27.536</v>
+      </c>
+      <c r="H5" t="n">
+        <v>40.12</v>
+      </c>
+      <c r="I5" t="n">
+        <v>44.48</v>
+      </c>
+      <c r="J5" t="n">
+        <v>46.113</v>
+      </c>
+      <c r="K5" t="n">
+        <v>53.841</v>
+      </c>
+      <c r="L5" t="n">
+        <v>38.983</v>
+      </c>
+      <c r="M5" t="n">
+        <v>34.256</v>
+      </c>
+      <c r="N5" t="n">
+        <v>29.024</v>
+      </c>
+      <c r="O5" t="n">
+        <v>18.553</v>
+      </c>
+      <c r="P5" t="n">
+        <v>34.748</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>38.146</v>
+      </c>
+      <c r="R5" t="n">
+        <v>22.165</v>
+      </c>
+      <c r="S5" t="n">
+        <v>20.282</v>
+      </c>
+      <c r="T5" t="n">
+        <v>40.855</v>
+      </c>
+      <c r="U5" t="n">
+        <v>17.474</v>
+      </c>
+      <c r="V5" t="n">
+        <v>49.36</v>
+      </c>
+      <c r="W5" t="n">
+        <v>59.524</v>
+      </c>
+      <c r="X5" t="n">
+        <v>15.688</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>13.452</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>15.151</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>14.954</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>50.449</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>25.838</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>33.766</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>37.762</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>34.713</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>21.754</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>56.024</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>50.156</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>34.826</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>33.286</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>16.927</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>34.639</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>38.603</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>47.015</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>27.828</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>15.943</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>38.313</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>32.371</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>16.689</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
